--- a/Time-Table-2023-24/Lab-details/Lab Requirements for 2023-2024 CSM Report.xlsx
+++ b/Time-Table-2023-24/Lab-details/Lab Requirements for 2023-2024 CSM Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEMANTH\Desktop\CSM DEPARTMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AY-2022-23\Time-Table-2022-23\Time-Table-2023-24\Lab-details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328E471-675B-45E7-8295-F2670CF89FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17194" windowHeight="5384"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Requirements" sheetId="1" r:id="rId1"/>
@@ -278,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,6 +676,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,9 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,9 +743,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -784,9 +783,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,7 +820,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1029,102 +1028,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:12" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:12" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:12" ht="20.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:12" ht="14.55" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1186,19 +1185,19 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:12" ht="14.55" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1260,19 +1259,19 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:12" ht="14.55" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1386,19 +1385,19 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:8" ht="14.55" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>1</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>2</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>3</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1512,19 +1511,19 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:8" ht="14.55" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>1</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>2</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -1612,19 +1611,19 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:8" ht="14.55" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>1</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="38.700000000000003" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>3</v>
       </c>
@@ -1728,8 +1727,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="37" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1747,40 +1746,40 @@
     <mergeCell ref="A9:H9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" display="http://www.codeblocks.org/downloads/26" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F11" r:id="rId5" display="http://www.codeblocks.org/downloads/26" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F23" r:id="rId6" location="download" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F33" r:id="rId7" xr:uid="{463ED1B6-B91D-45C2-B3B6-53464CF61991}"/>
-    <hyperlink ref="F27" r:id="rId8" xr:uid="{097EF283-3E53-4176-B15E-AFAF4CD1954D}"/>
-    <hyperlink ref="F17" r:id="rId9" location="download" xr:uid="{534D2F7F-DB27-4135-B53D-28948B2D2F33}"/>
-    <hyperlink ref="F22" r:id="rId10" xr:uid="{4204C93B-A916-4B2F-8726-A5BB7AA38F55}"/>
-    <hyperlink ref="F28" r:id="rId11" display="https://gcc.gnu.org/" xr:uid="{9F01C294-7F87-4E31-8CDE-E55146F098FD}"/>
-    <hyperlink ref="F34" r:id="rId12" xr:uid="{562573EF-BA02-4A7F-BAC3-734866430F90}"/>
+    <hyperlink ref="F7" r:id="rId1" display="http://www.codeblocks.org/downloads/26"/>
+    <hyperlink ref="F15" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="F16" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId5" display="http://www.codeblocks.org/downloads/26"/>
+    <hyperlink ref="F23" r:id="rId6" location="download"/>
+    <hyperlink ref="F33" r:id="rId7"/>
+    <hyperlink ref="F27" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9" location="download"/>
+    <hyperlink ref="F22" r:id="rId10"/>
+    <hyperlink ref="F28" r:id="rId11" display="https://gcc.gnu.org/"/>
+    <hyperlink ref="F34" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.37" right="0.27" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:G9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="6:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="6:7" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="6:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:7" ht="27.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="6:7" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:7" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
